--- a/biology/Médecine/Mary_Malahlela/Mary_Malahlela.xlsx
+++ b/biology/Médecine/Mary_Malahlela/Mary_Malahlela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie ou Mary Malahele-Xakana, née le 2 mai 1916 à Pietersburg en Union d'Afrique du Sud et morte le 8 mai 1981 à Sandton en Afrique du Sud, présidente du Roodepoort School Board, est la première femme noire sud-africaine de profession médecin (acquis en 1947).
 </t>
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et formation
-Mary Susan Makobatjatji Malahlela est née à Pietersburg (actuel Polokwane)[1] dans le nord de la province du Transvaal (actuel Limpopo) en Afrique du Sud. Son père est Thadius Chweu Malahlela, converti à la religion chrétienne. Celui-ci est chassé de sa maison pour avoir refusé de faire mourir des enfants jumeaux, les jumeaux étant considérés comme une malédiction[2]. 
+          <t>Origines et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mary Susan Makobatjatji Malahlela est née à Pietersburg (actuel Polokwane) dans le nord de la province du Transvaal (actuel Limpopo) en Afrique du Sud. Son père est Thadius Chweu Malahlela, converti à la religion chrétienne. Celui-ci est chassé de sa maison pour avoir refusé de faire mourir des enfants jumeaux, les jumeaux étant considérés comme une malédiction. 
 Elle étudie dans un établissement de l'église méthodiste à Juliwe, près de Johannesbourg,  fréquente ensuite l'Université de Fort Hare, et en 1941, reçoit une bourse pour étudier la médecine à l'Université du Witwatersrand.
-En 1947, Mary Malahlela est diplômée de l'école de médecine et s'enregistre en tant que médecin, devenant la première femme noire de cette profession en Afrique du Sud[3]. 
-Carrière professionnelle
-Mary Malahlela ouvre un cabinet privé à Kliptown, puis à Mofolo Sud. À la suite de la mise en œuvre du Group Areas Act, elle travaille à la clinique de Dobsonville[4],[5],[6],[7].
-Elle meurt en 1981, âgée de 65 ans, après une crise cardiaque, en faisant du bénévolat avec Nthato Motlana en milieu rural à Sandton, en banlieue de Johannesburg[8].
+En 1947, Mary Malahlela est diplômée de l'école de médecine et s'enregistre en tant que médecin, devenant la première femme noire de cette profession en Afrique du Sud. 
 </t>
         </is>
       </c>
@@ -545,14 +559,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mary Malahlela ouvre un cabinet privé à Kliptown, puis à Mofolo Sud. À la suite de la mise en œuvre du Group Areas Act, elle travaille à la clinique de Dobsonville.
+Elle meurt en 1981, âgée de 65 ans, après une crise cardiaque, en faisant du bénévolat avec Nthato Motlana en milieu rural à Sandton, en banlieue de Johannesburg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mary_Malahlela</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mary_Malahlela</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malahlele est l'une des fondatrices d'une section de la Young Women's Christian Association (YWCA) en Afrique du Sud, et participe à la lutte anti-apartheid. Elle est membre du Mouvement des femmes pour la paix (Women's Peace Movement), membre de l'Université de Fort Hare, et présidente du Roodepoort School Board.
-Reconnaissance posthume
-En 2015, Malahlele se voit décerner à titre posthume l'Ordre du Baobab pour son rôle pionnier dans la carrière médicale des femmes noires[9]. La même année, l'Université de Witwatersrand érige une plaque en sa mémoire[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mary_Malahlela</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mary_Malahlela</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reconnaissance posthume</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, Malahlele se voit décerner à titre posthume l'Ordre du Baobab pour son rôle pionnier dans la carrière médicale des femmes noires. La même année, l'Université de Witwatersrand érige une plaque en sa mémoire.
 </t>
         </is>
       </c>
